--- a/medicine/Enfance/Lily_Lévy/Lily_Lévy.xlsx
+++ b/medicine/Enfance/Lily_Lévy/Lily_Lévy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lily_L%C3%A9vy</t>
+          <t>Lily_Lévy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lily Lévy, épouse Javal, dite Lily Jean-Javal, née Zélia Froumat Léon Lévy le 31 mars 1882 dans le 17e arrondissement de Paris et morte le 29 juillet 1958 dans le 16e arrondissement de Paris, est une écrivaine française pour enfants.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lily_L%C3%A9vy</t>
+          <t>Lily_Lévy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et famille
-Zélia Froumat Léon Lévy naît en 1882 à Paris[1]. Elle est la fille de Léon Lévy, industriel juif associé à Schneider dans les forges de Châtillon-Commentry, et la cousine de l'illustratrice Maggie Salcedo avec qui elle collabore[réf. nécessaire]. En 1903, elle épouse Jean Javal (1871-1915), ingénieur et député de l'Yonne. Capitaine à l’état-major de la 9e armée au début de la Première Guerre mondiale, il meurt le 15 août 1915 à Tours[2].
-Carrière
-Poétesse, romancière, journaliste, elle a notamment écrit de nombreux récits pour les enfants.
-Du début du siècle à 1925, elle réside au château Saint-Jean à Montluçon (Allier).
-Elle meurt en 1958 à Paris et est inhumée au cimetière de Montmartre, et non dans le caveau familial de son mari, au cimetière du Père-Lachaise (7e division)[3],[4].
+          <t>Jeunesse et famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zélia Froumat Léon Lévy naît en 1882 à Paris. Elle est la fille de Léon Lévy, industriel juif associé à Schneider dans les forges de Châtillon-Commentry, et la cousine de l'illustratrice Maggie Salcedo avec qui elle collabore[réf. nécessaire]. En 1903, elle épouse Jean Javal (1871-1915), ingénieur et député de l'Yonne. Capitaine à l’état-major de la 9e armée au début de la Première Guerre mondiale, il meurt le 15 août 1915 à Tours.
 </t>
         </is>
       </c>
@@ -529,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lily_L%C3%A9vy</t>
+          <t>Lily_Lévy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poétesse, romancière, journaliste, elle a notamment écrit de nombreux récits pour les enfants.
+Du début du siècle à 1925, elle réside au château Saint-Jean à Montluçon (Allier).
+Elle meurt en 1958 à Paris et est inhumée au cimetière de Montmartre, et non dans le caveau familial de son mari, au cimetière du Père-Lachaise (7e division),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lily_Lévy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lily_L%C3%A9vy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Quenouille du bonheur (1920)
 Le Brasier (roman) (1922)
@@ -568,7 +622,7 @@
 Vers le soleil de minuit, à travers la nouvelle Finlande et ses dix mille lacs (1928)
 Bergerette, fille des eaux (1930)
 Sous le charme du Portugal : visages et paysages (1931)
-La Mère Grimuzot raconte... (1932)[5]
+La Mère Grimuzot raconte... (1932)
 Nuages (poèmes) (1934)
 Ma cousine Trois-Pommes (1935)
 Le Papillon bleu (1937)
@@ -581,31 +635,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lily_L%C3%A9vy</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lily_Lévy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lily_L%C3%A9vy</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>5e biennale du livre et des écrivains bourbonnais / Conseil général de l'Allier, Lily Jean-Javal, 1991</t>
         </is>
